--- a/Аналитика проекта/Лист с задачами.xlsx
+++ b/Аналитика проекта/Лист с задачами.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\IT_project\Аналитика проекта\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818A2A34-44CA-4173-9351-9FEB0DDEC6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CC60E8-FC84-45D0-B172-7234F5F5731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="171">
   <si>
     <t>Название задачи</t>
   </si>
@@ -258,9 +258,6 @@
     <t xml:space="preserve">      Возможность автономной работы алгоритмв</t>
   </si>
   <si>
-    <t>Чт 03.02.22</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Разработка экранных форм</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t xml:space="preserve">      Тестирование обновлений</t>
   </si>
   <si>
-    <t>Чт 02.06.22</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Тестирование интерфейса</t>
   </si>
   <si>
@@ -387,9 +381,6 @@
     <t>Вт 23.11.21</t>
   </si>
   <si>
-    <t>11 дней</t>
-  </si>
-  <si>
     <t>Чт 25.11.21</t>
   </si>
   <si>
@@ -411,18 +402,6 @@
     <t>Пт 18.03.22</t>
   </si>
   <si>
-    <t>Подрядчик MindBox Алгоритм;Подрядчик MindBox Приложение</t>
-  </si>
-  <si>
-    <t>Пт 04.02.22</t>
-  </si>
-  <si>
-    <t>Подрядчик MindBox Приложение</t>
-  </si>
-  <si>
-    <t>Пн 14.02.22</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Окончание разработки BackEnd</t>
   </si>
   <si>
@@ -438,24 +417,9 @@
     <t>41;39</t>
   </si>
   <si>
-    <t>Вт 29.03.22</t>
-  </si>
-  <si>
-    <t>Ср 06.04.22</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Окончание разработки приложения</t>
   </si>
   <si>
-    <t>45;43;44</t>
-  </si>
-  <si>
-    <t>37 дней</t>
-  </si>
-  <si>
-    <t>Вт 31.05.22</t>
-  </si>
-  <si>
     <t>Ср 27.04.22</t>
   </si>
   <si>
@@ -471,25 +435,109 @@
     <t>Вт 17.05.22</t>
   </si>
   <si>
-    <t>Ср 18.05.22</t>
-  </si>
-  <si>
-    <t>Чт 26.05.22</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Окончание тестирования приложения</t>
   </si>
   <si>
-    <t>33 дней</t>
-  </si>
-  <si>
     <t>Ср 08.06.22</t>
   </si>
   <si>
-    <t>Чт 09.06.22</t>
-  </si>
-  <si>
     <t xml:space="preserve">      DeadLine релиза в Google Play</t>
+  </si>
+  <si>
+    <t>26 дней</t>
+  </si>
+  <si>
+    <t>Пт 31.12.21</t>
+  </si>
+  <si>
+    <t>28 дней</t>
+  </si>
+  <si>
+    <t>Подрядчик MindBox Алгоритм[50%];Подрядчик MindBox Приложение[50%]</t>
+  </si>
+  <si>
+    <t>Чт 24.02.22</t>
+  </si>
+  <si>
+    <t>Вт 15.03.22</t>
+  </si>
+  <si>
+    <t>Подрядчик MindBox Приложение[15%]</t>
+  </si>
+  <si>
+    <t>Пт 04.03.22</t>
+  </si>
+  <si>
+    <t>32НН</t>
+  </si>
+  <si>
+    <t>33НН</t>
+  </si>
+  <si>
+    <t>34НН</t>
+  </si>
+  <si>
+    <t>35НН</t>
+  </si>
+  <si>
+    <t>36НН</t>
+  </si>
+  <si>
+    <t>37НН</t>
+  </si>
+  <si>
+    <t>31ОО;32ОО;33ОО;34ОО;35ОО;36ОО;37ОО;38ОО</t>
+  </si>
+  <si>
+    <t>31НО</t>
+  </si>
+  <si>
+    <t>Подрядчик MindBox Приложение[25%]</t>
+  </si>
+  <si>
+    <t>42ОО</t>
+  </si>
+  <si>
+    <t>45ОО;43ОО;44ОО;41ОО;42ОО</t>
+  </si>
+  <si>
+    <t>43 дней</t>
+  </si>
+  <si>
+    <t>Вт 07.06.22</t>
+  </si>
+  <si>
+    <t>Пн 30.05.22</t>
+  </si>
+  <si>
+    <t>52НН</t>
+  </si>
+  <si>
+    <t>Чт 19.05.22</t>
+  </si>
+  <si>
+    <t>52;51НО</t>
+  </si>
+  <si>
+    <t>27 дней</t>
+  </si>
+  <si>
+    <t>Пт 10.06.22</t>
+  </si>
+  <si>
+    <t>57НН</t>
+  </si>
+  <si>
+    <t>58НН</t>
+  </si>
+  <si>
+    <t>Чт 16.06.22</t>
+  </si>
+  <si>
+    <t>59НН</t>
+  </si>
+  <si>
+    <t>60НН</t>
   </si>
 </sst>
 </file>
@@ -890,16 +938,16 @@
   <dimension ref="C3:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -926,23 +974,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="3">
-        <v>4804000</v>
+        <v>4882400</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -964,7 +1012,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -985,7 +1033,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -996,7 +1044,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="4">
         <v>3</v>
@@ -1008,7 +1056,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1033,10 +1081,10 @@
     </row>
     <row r="9" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>22</v>
@@ -1071,7 +1119,7 @@
         <v>176000</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1142,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1165,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1142,10 +1190,10 @@
     </row>
     <row r="14" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>34</v>
@@ -1161,18 +1209,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1180,7 +1228,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="16" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1211,10 +1259,10 @@
         <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G17" s="4">
         <v>13</v>
@@ -1234,10 +1282,10 @@
         <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1245,7 +1293,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
@@ -1253,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>50</v>
@@ -1268,7 +1316,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
@@ -1279,7 +1327,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G20" s="4">
         <v>16</v>
@@ -1291,7 +1339,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1299,10 +1347,10 @@
         <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="4">
         <v>17</v>
@@ -1314,7 +1362,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
         <v>44</v>
       </c>
@@ -1322,10 +1370,10 @@
         <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G22" s="4">
         <v>18</v>
@@ -1339,16 +1387,16 @@
     </row>
     <row r="23" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G23" s="4">
         <v>19</v>
@@ -1358,18 +1406,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1377,7 +1425,7 @@
         <v>176000</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
@@ -1385,10 +1433,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G25" s="4">
         <v>20</v>
@@ -1400,7 +1448,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
@@ -1408,10 +1456,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G26" s="4">
         <v>22</v>
@@ -1423,7 +1471,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
         <v>54</v>
       </c>
@@ -1431,10 +1479,10 @@
         <v>29</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G27" s="4">
         <v>23</v>
@@ -1451,13 +1499,13 @@
         <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1465,7 +1513,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
         <v>57</v>
       </c>
@@ -1473,10 +1521,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G29" s="4">
         <v>24</v>
@@ -1488,7 +1536,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
         <v>58</v>
       </c>
@@ -1496,10 +1544,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G30" s="4">
         <v>26</v>
@@ -1511,7 +1559,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" ht="72" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
         <v>59</v>
       </c>
@@ -1519,10 +1567,10 @@
         <v>13</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G31" s="4">
         <v>27</v>
@@ -1539,13 +1587,13 @@
         <v>61</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G32" s="4">
         <v>28</v>
@@ -1555,49 +1603,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="3">
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>1898400</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C34" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G34" s="4">
         <v>29</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="I34" s="5">
-        <v>560000</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+        <v>1344000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
         <v>67</v>
       </c>
@@ -1605,22 +1653,22 @@
         <v>68</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="G35" s="4">
         <v>31</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I35" s="5">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>69</v>
       </c>
@@ -1628,22 +1676,22 @@
         <v>47</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="4">
-        <v>31</v>
+        <v>146</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I36" s="5">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
         <v>70</v>
       </c>
@@ -1651,22 +1699,22 @@
         <v>47</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="4">
-        <v>31</v>
+        <v>146</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I37" s="5">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
@@ -1674,22 +1722,22 @@
         <v>47</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="4">
-        <v>31</v>
+        <v>146</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I38" s="5">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
         <v>72</v>
       </c>
@@ -1697,22 +1745,22 @@
         <v>68</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="4">
-        <v>31</v>
+        <v>144</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I39" s="5">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
         <v>73</v>
       </c>
@@ -1720,22 +1768,22 @@
         <v>68</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="4">
-        <v>31</v>
+        <v>144</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I40" s="5">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>74</v>
       </c>
@@ -1743,205 +1791,209 @@
         <v>68</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="4">
-        <v>31</v>
+        <v>144</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I41" s="5">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="3">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1344000</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C45" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I44" s="5">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="C45" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="I45" s="5">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" s="4">
-        <v>42</v>
+        <v>128</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="I46" s="5">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="4">
-        <v>42</v>
+        <v>128</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="I47" s="5">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" ht="72" x14ac:dyDescent="0.3">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G48" s="4">
-        <v>42</v>
+        <v>128</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="H48" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I48" s="5">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I48" s="5">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C49" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -1949,18 +2001,18 @@
         <v>448000</v>
       </c>
     </row>
-    <row r="51" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G51" s="4">
         <v>46</v>
@@ -1972,18 +2024,18 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G52" s="4">
         <v>48</v>
@@ -1995,18 +2047,18 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C53" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G53" s="4">
         <v>49</v>
@@ -2018,18 +2070,18 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G54" s="4">
         <v>50</v>
@@ -2041,18 +2093,18 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="55" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C55" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G55" s="4">
         <v>49</v>
@@ -2064,21 +2116,21 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="56" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="4">
-        <v>49</v>
+        <v>135</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>39</v>
@@ -2087,21 +2139,21 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="57" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G57" s="4">
-        <v>53</v>
+        <v>160</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>37</v>
@@ -2112,37 +2164,37 @@
     </row>
     <row r="58" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G58" s="4">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C59" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -2150,18 +2202,18 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="60" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="G60" s="4">
         <v>55</v>
@@ -2173,21 +2225,21 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="61" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" s="4">
-        <v>55</v>
+        <v>165</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>37</v>
@@ -2196,21 +2248,21 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="62" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G62" s="4">
-        <v>55</v>
+        <v>137</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>51</v>
@@ -2219,21 +2271,21 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="63" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G63" s="4">
-        <v>55</v>
+        <v>168</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>37</v>
@@ -2242,21 +2294,21 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="64" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G64" s="4">
-        <v>60</v>
+        <v>137</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>37</v>
@@ -2265,18 +2317,18 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="65" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C65" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G65" s="4">
         <v>61</v>
@@ -2288,5 +2340,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>